--- a/biology/Zoologie/Himantura_uarnak/Himantura_uarnak.xlsx
+++ b/biology/Zoologie/Himantura_uarnak/Himantura_uarnak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himantura uarnak, communément nommé raie alvéolée ou raie pastenague léopard, est une espèce de poisson cartilagineux appartenant à la famille des Dasyatidae.  
-Elle fut mentionnée pour la première fois en 1775 par le naturaliste suédois Pehr Forsskål lors d'une expédition en mer Rouge[4],[5]. Outre la mer Rouge, cette espèce est présente dans l'ouest de l'océan Indien ainsi qu'en Méditerranée orientale[6]. Le genre Himantura, dont H. uarnak est l'espèce-type, comprend aussi la raie alvéolée australienne H. australis, la raie léopard H. leoparda (dont H. uarnak est l'espèce sœur[6]), la raie léopard à petites ocelles H. tutul, la raie ondulée H. undulata, ainsi qu'une ou deux autres espèces qui restent à décrire de façon formelle. 
+Elle fut mentionnée pour la première fois en 1775 par le naturaliste suédois Pehr Forsskål lors d'une expédition en mer Rouge,. Outre la mer Rouge, cette espèce est présente dans l'ouest de l'océan Indien ainsi qu'en Méditerranée orientale. Le genre Himantura, dont H. uarnak est l'espèce-type, comprend aussi la raie alvéolée australienne H. australis, la raie léopard H. leoparda (dont H. uarnak est l'espèce sœur), la raie léopard à petites ocelles H. tutul, la raie ondulée H. undulata, ainsi qu'une ou deux autres espèces qui restent à décrire de façon formelle. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La raie pastenague léopard peut avoir jusqu'à 1,5 m de diamètre. Sa face dorsale est beige, maculée de nombreuses taches brun sombre dont le nombre et la forme varient avec l'âge. Sa face ventrale est blanche et grise[4],[6].
-Elle se nourrit de petits poissons et d’invertébrés de fond comme des crabes, des mollusques, des pieuvres…, parfois même de méduses[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La raie pastenague léopard peut avoir jusqu'à 1,5 m de diamètre. Sa face dorsale est beige, maculée de nombreuses taches brun sombre dont le nombre et la forme varient avec l'âge. Sa face ventrale est blanche et grise,.
+Elle se nourrit de petits poissons et d’invertébrés de fond comme des crabes, des mollusques, des pieuvres…, parfois même de méduses.
 </t>
         </is>
       </c>
